--- a/biology/Botanique/Calochortus_kennedyi/Calochortus_kennedyi.xlsx
+++ b/biology/Botanique/Calochortus_kennedyi/Calochortus_kennedyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calochortus kennedyi est une espèce végétale de la famille des Liliaceae, originaire du sud-ouest des États-Unis et du nord-ouest du Mexique.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 10 à 50 cm de hauteur présente des feuilles peu nombreuses, étroites et longues de 10 à 20 cm[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juin.
-Une à six fleurs apparaissent à l'extrémité d'une tige florale généralement assez courte. De couleur vive, rouge vermillon, orange ou jaune, chaque fleur mesure de 2,5 à 4 cm de diamètre[1]. Trois sépales lancéolés entourent trois grands pétales en forme d'éventail. Chaque pétale porte à sa base une tache brun-rouge ainsi qu'une glande arrondie encerclée d'une membrane frangée. Quelques poils à l'extrémité aplatie, bien visibles, se dressent à proximité de cette glande.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 10 à 50 cm de hauteur présente des feuilles peu nombreuses, étroites et longues de 10 à 20 cm.
 </t>
         </is>
       </c>
@@ -543,14 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans les zones désertiques du sud-ouest des États-Unis et du nord-ouest du Mexique. La limite nord de son aire de répartition va du sud de la Californie au centre de l'Arizona.
-Elle pousse dans les sols lourds des zones dégagées ou broussailleuses désertiques, souvent au sein des associations végétales à Larrea tridentata (en plaine) ou Pinus-Juniperus (à altitude plus élevée).
-Les individus à fleurs rouges sont plus communs en Californie, alors que ceux à fleurs orange sont plus communs vers l'est. On trouve des individus à fleurs jaunes sur toute l'aire de répartition, mais ils sont plus communs en altitude[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin.
+Une à six fleurs apparaissent à l'extrémité d'une tige florale généralement assez courte. De couleur vive, rouge vermillon, orange ou jaune, chaque fleur mesure de 2,5 à 4 cm de diamètre. Trois sépales lancéolés entourent trois grands pétales en forme d'éventail. Chaque pétale porte à sa base une tache brun-rouge ainsi qu'une glande arrondie encerclée d'une membrane frangée. Quelques poils à l'extrémité aplatie, bien visibles, se dressent à proximité de cette glande.
 </t>
         </is>
       </c>
@@ -576,10 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans les zones désertiques du sud-ouest des États-Unis et du nord-ouest du Mexique. La limite nord de son aire de répartition va du sud de la Californie au centre de l'Arizona.
+Elle pousse dans les sols lourds des zones dégagées ou broussailleuses désertiques, souvent au sein des associations végétales à Larrea tridentata (en plaine) ou Pinus-Juniperus (à altitude plus élevée).
+Les individus à fleurs rouges sont plus communs en Californie, alors que ceux à fleurs orange sont plus communs vers l'est. On trouve des individus à fleurs jaunes sur toute l'aire de répartition, mais ils sont plus communs en altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calochortus_kennedyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calochortus_kennedyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
